--- a/API-specifikation/Webb_Labb_2_API_Specification_LF.xlsx
+++ b/API-specifikation/Webb_Labb_2_API_Specification_LF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linus\source\repos\labb-2-webb-Fjellstrom101\API-specifikation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA8D9C-EF5B-449D-89A1-CDAD03FF56C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF95B20E-3A41-4CA0-8B78-9B07932A0C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
